--- a/figures/table-criteria1/table-criteria.xlsx
+++ b/figures/table-criteria1/table-criteria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Mesurability </t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Communicability</t>
+  </si>
+  <si>
+    <t>ξδη</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,27 +579,55 @@
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>333</v>
+      </c>
+      <c r="F4" s="1">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
